--- a/data/long_dif/P18_3-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_3-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,91%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,26; 22,62</t>
+          <t>9,68; 23,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 20,91</t>
+          <t>7,86; 23,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 24,87</t>
+          <t>11,36; 29,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 31,16</t>
+          <t>15,8; 40,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 16,88</t>
+          <t>21,39; 56,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 30,88</t>
+          <t>15,39; 32,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 24,11</t>
+          <t>4,63; 15,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 16,27</t>
+          <t>17,37; 32,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 25,62</t>
+          <t>9,89; 25,65</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10,12; 33,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 25,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 16,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 28,85</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 28,78</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18,53; 39,47</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>65,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>55,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,15%</t>
+          <t>66,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>63,2%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>69,13%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63,24%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>65,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>59,38%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>53,45%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,72; 80,3</t>
+          <t>63,18; 79,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,42; 76,61</t>
+          <t>51,87; 72,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,1; 77,7</t>
+          <t>55,52; 75,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,32; 75,32</t>
+          <t>39,99; 67,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,81; 72,61</t>
+          <t>31,04; 64,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,2; 72,36</t>
+          <t>56,18; 75,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,41; 75,2</t>
+          <t>53,79; 73,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,73; 72,94</t>
+          <t>56,25; 72,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,08; 73,2</t>
+          <t>52,17; 72,68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>45,89; 72,99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>63,04; 74,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56,12; 70,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>57,63; 71,8</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>50,56; 67,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>42,28; 63,83</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>20,13%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,44%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 18,74</t>
+          <t>7,0; 19,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,36; 29,86</t>
+          <t>14,26; 34,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 23,68</t>
+          <t>8,47; 23,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 17,1</t>
+          <t>10,67; 32,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,07; 36,63</t>
+          <t>7,79; 29,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 17,71</t>
+          <t>5,59; 16,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 15,98</t>
+          <t>20,2; 38,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 29,21</t>
+          <t>6,38; 17,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 18,39</t>
+          <t>12,52; 30,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 33,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 15,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19,17; 32,75</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 18,17</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 28,09</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11,55; 28,31</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 15,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 39,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 19,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 17,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 24,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 15,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 29,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,98%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>77,52%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,66%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>80,31%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>74,04%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,93; 88,86</t>
+          <t>5,72; 16,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,42; 83,07</t>
+          <t>2,85; 12,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,53; 78,99</t>
+          <t>12,14; 41,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,18; 84,07</t>
+          <t>2,89; 12,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,73; 82,8</t>
+          <t>3,17; 21,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,67; 74,14</t>
+          <t>8,31; 20,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,37; 85,15</t>
+          <t>5,94; 16,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>64,12; 80,46</t>
+          <t>12,21; 23,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,61; 74,4</t>
+          <t>8,79; 21,54</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 31,63</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 16,12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 12,27</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14,36; 31,44</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 14,33</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 22,08</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>75,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>66,56%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53,29%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79,8%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>72,8%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>68,62%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>60,91%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>64,91%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 12,6</t>
+          <t>74,64; 88,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,98; 39,87</t>
+          <t>51,45; 82,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,62</t>
+          <t>52,08; 79,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,69; 15,97</t>
+          <t>34,29; 72,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 20,3</t>
+          <t>56,25; 88,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 20,95</t>
+          <t>68,8; 83,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,43</t>
+          <t>67,7; 82,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,19; 29,0</t>
+          <t>60,17; 73,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,65</t>
+          <t>57,42; 75,09</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>41,85; 63,73</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73,77; 84,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>61,16; 79,55</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>59,04; 74,65</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>45,84; 70,45</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>54,43; 74,52</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,97%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>29,25%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 21,22</t>
+          <t>3,33; 13,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,81; 18,21</t>
+          <t>11,04; 44,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 20,54</t>
+          <t>4,38; 12,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,92</t>
+          <t>19,38; 62,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,52</t>
+          <t>4,85; 35,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,49</t>
+          <t>5,86; 15,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 17,58</t>
+          <t>7,77; 20,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,47; 16,17</t>
+          <t>10,43; 21,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,54; 16,48</t>
+          <t>13,07; 30,19</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16,18; 35,83</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 12,45</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,29; 32,02</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 15,11</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 47,82</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 30,94</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>77,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>72,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>70,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>73,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>71,86%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>57,18; 80,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,84; 83,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>65,56; 79,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>71,0; 82,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>65,61; 77,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,43; 75,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>65,09; 79,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>69,83; 79,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>67,08; 76,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12,89%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>14,25%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,63; 33,28</t>
+          <t>6,53; 23,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,74; 16,37</t>
+          <t>7,57; 17,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,62; 18,67</t>
+          <t>8,8; 22,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,55</t>
+          <t>7,17; 18,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,15; 19,4</t>
+          <t>6,4; 19,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,09; 23,12</t>
+          <t>9,92; 19,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,83; 23,2</t>
+          <t>8,9; 17,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,56; 16,23</t>
+          <t>8,06; 15,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,18</t>
+          <t>13,97; 25,01</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 25,12</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9,37; 19,12</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 16,42</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 17,11</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>12,13; 19,85</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 19,64</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>75,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>70,55%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>72,64%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>63,18%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>57,75%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>75,76%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>74,97%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>71,92%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>68,99%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>64,54%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,82; 14,58</t>
+          <t>64,52; 82,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,81; 23,01</t>
+          <t>70,5; 83,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,25; 17,49</t>
+          <t>65,16; 80,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,87; 20,42</t>
+          <t>67,54; 81,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,99; 15,74</t>
+          <t>60,05; 78,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,56; 21,04</t>
+          <t>70,04; 81,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,76</t>
+          <t>66,3; 78,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,38; 15,69</t>
+          <t>64,99; 75,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,95; 17,83</t>
+          <t>57,18; 70,22</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>48,3; 66,75</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>69,73; 80,32</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>70,17; 79,05</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>67,12; 76,39</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>64,12; 73,83</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>57,3; 70,65</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>76,89%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>77,67%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>24,95%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>77,19; 87,55</t>
+          <t>8,14; 19,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>62,9; 78,53</t>
+          <t>6,74; 16,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>71,09; 82,15</t>
+          <t>8,04; 18,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>66,97; 78,7</t>
+          <t>8,65; 19,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>60,88; 73,64</t>
+          <t>10,58; 27,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>56,02; 67,12</t>
+          <t>6,13; 14,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>73,52; 81,29</t>
+          <t>10,36; 19,25</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>64,92; 74,24</t>
+          <t>13,9; 22,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>64,67; 73,12</t>
+          <t>12,87; 23,1</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 33,67</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 15,42</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 16,67</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 19,19</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 19,63</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>16,1; 27,33</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,52; 23,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,53; 16,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,25; 27,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,78; 26,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>16,03; 23,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>13,15; 19,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,4; 9,33</t>
+          <t>6,11; 14,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,86; 11,86</t>
+          <t>5,45; 21,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,62; 12,08</t>
+          <t>9,1; 17,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,27; 23,58</t>
+          <t>4,6; 11,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,04; 20,73</t>
+          <t>9,99; 24,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,92; 18,05</t>
+          <t>11,07; 20,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,13; 14,51</t>
+          <t>7,06; 15,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,27; 14,18</t>
+          <t>12,85; 21,36</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,32</t>
+          <t>13,05; 23,57</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>10,09; 22,53</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 15,7</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 15,93</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 17,54</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 16,28</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>11,92; 21,94</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>72,35%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>84,06%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>75,65%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>72,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>77,34%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>61,61%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>63,51%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>63,87%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>77,64%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>70,04%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>69,05%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>69,55%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>63,02%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>74,75; 89,77</t>
+          <t>77,6; 87,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>70,06; 86,6</t>
+          <t>63,19; 79,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>78,42; 88,7</t>
+          <t>70,92; 81,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>62,66; 78,35</t>
+          <t>67,95; 82,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>63,29; 78,57</t>
+          <t>52,67; 72,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>61,25; 73,98</t>
+          <t>66,97; 78,32</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>71,44; 81,91</t>
+          <t>61,3; 74,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>70,68; 80,99</t>
+          <t>55,73; 67,22</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>71,29; 79,95</t>
+          <t>56,7; 69,52</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>54,53; 71,84</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>73,76; 81,7</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>65,49; 74,9</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>64,92; 72,9</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>64,24; 74,38</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>55,92; 68,92</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>20,63%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>16,26%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>17,74%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>21,0%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>6,47; 21,17</t>
+          <t>4,42; 11,69</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>7,58; 24,94</t>
+          <t>12,12; 24,31</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,5</t>
+          <t>6,8; 14,41</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>9,1; 19,25</t>
+          <t>11,62; 23,22</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,84; 20,86</t>
+          <t>13,32; 30,27</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>14,16; 25,05</t>
+          <t>7,77; 16,24</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,86; 17,67</t>
+          <t>16,19; 27,6</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,58; 18,77</t>
+          <t>17,51; 26,96</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>10,76; 17,79</t>
+          <t>14,0; 24,31</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>13,82; 28,49</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 13,33</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 23,21</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 19,55</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 22,16</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 27,37</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>4,24; 25,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>7,54; 20,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>7,3; 17,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>5,7; 15,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>10,29; 21,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>6,26; 16,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>10,38; 18,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>77,26%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>72,2%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>79,02; 91,15</t>
+          <t>2,43; 9,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>65,13; 85,72</t>
+          <t>3,81; 12,08</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>60,86; 80,4</t>
+          <t>5,02; 12,3</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>62,65; 77,99</t>
+          <t>4,94; 15,02</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>59,83; 76,42</t>
+          <t>8,2; 22,95</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>62,43; 77,43</t>
+          <t>9,78; 20,39</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>71,27; 81,84</t>
+          <t>10,06; 21,58</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>64,93; 77,86</t>
+          <t>8,49; 17,61</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>64,33; 75,79</t>
+          <t>12,38; 26,35</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 15,06</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 13,77</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 14,82</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 13,3</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>10,06; 18,45</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 17,63</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>83,62%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>60,38%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>70,32%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>63,17%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>68,01%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>77,35%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>75,22%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>75,43%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>69,8%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>64,34%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>4,7; 14,23</t>
+          <t>75,53; 89,33</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>6,82; 19,05</t>
+          <t>68,35; 85,89</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>9,18; 26,59</t>
+          <t>77,85; 88,34</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>12,28; 25,38</t>
+          <t>68,68; 83,99</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>14,98; 30,69</t>
+          <t>50,4; 70,91</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>9,66; 20,73</t>
+          <t>63,23; 77,85</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>10,12; 19,09</t>
+          <t>62,97; 77,74</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>12,95; 23,8</t>
+          <t>60,7; 73,42</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>11,42; 21,03</t>
+          <t>53,52; 71,71</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>60,13; 75,84</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>72,26; 81,83</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>68,9; 79,86</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>71,26; 79,56</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>64,18; 75,5</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>57,75; 71,57</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>23,34%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>7,34; 11,74</t>
+          <t>6,23; 19,54</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>7,57; 13,07</t>
+          <t>7,85; 24,94</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>11,93; 18,07</t>
+          <t>4,77; 12,53</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,97</t>
+          <t>9,11; 22,85</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,7</t>
+          <t>15,89; 34,94</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>13,86; 17,81</t>
+          <t>9,59; 19,85</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>10,48; 13,65</t>
+          <t>9,73; 20,7</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>9,09; 12,38</t>
+          <t>15,13; 25,59</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,28</t>
+          <t>12,55; 26,44</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>16,25; 31,76</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 17,23</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>10,28; 20,15</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>11,09; 18,11</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 21,86</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 30,5</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>74,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>74,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>72,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>75,6; 82,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>69,53; 77,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>70,07; 77,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>69,94; 75,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>66,21; 72,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>64,34; 69,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>73,5; 78,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>69,79; 74,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>68,34; 72,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>17,63%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>9,31%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,15</t>
+          <t>2,71; 10,69</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,76</t>
+          <t>3,95; 22,55</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,85</t>
+          <t>7,62; 19,75</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,84</t>
+          <t>1,14; 11,26</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>16,4; 21,76</t>
+          <t>3,49; 16,01</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,17</t>
+          <t>7,27; 16,82</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,2</t>
+          <t>6,12; 15,7</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>15,37; 19,44</t>
+          <t>10,17; 21,7</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>12,93; 15,95</t>
+          <t>10,0; 29,31</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 27,49</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 13,25</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 16,24</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>10,57; 18,7</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 19,09</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 20,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>84,9%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>78,18%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>72,3%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>75,22%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>73,1%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>72,36%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>67,73%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>69,69%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>60,97%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>55,6%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>77,76%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>72,19%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>70,82%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>67,2%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>63,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>78,74; 90,58</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>67,39; 85,61</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>63,1; 80,32</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>63,12; 85,16</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>61,55; 82,09</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>65,22; 79,01</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>58,98; 75,06</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>62,51; 76,71</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>49,64; 70,66</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>41,31; 69,62</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>72,09; 82,23</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>64,88; 77,24</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>64,66; 75,93</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>58,6; 74,72</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>53,41; 71,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>22,27%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>29,57%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>20,85%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 14,87</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 19,18</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 23,34</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>11,32; 32,8</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 30,94</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 21,83</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 31,76</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>10,38; 21,23</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 31,13</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 45,96</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 17,79</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>13,66; 23,53</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 19,78</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 28,04</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 34,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 12,8</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 12,52</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 18,99</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 13,1</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 20,04</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>12,97; 17,39</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 13,68</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 18,18</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>14,89; 20,82</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 19,45</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 14,36</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 12,36</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 17,75</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 16,1</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>13,23; 18,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>80,11%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>73,61%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>73,63%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>69,3%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>65,55%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>72,89%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>69,6%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>66,97%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>63,31%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>59,57%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>76,42%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>71,56%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>66,24%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>62,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>76,81; 82,94</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>69,04; 77,3</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>69,38; 76,96</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>63,23; 73,97</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>60,23; 70,34</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>70,11; 75,5</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>66,49; 72,57</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>64,28; 69,59</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>59,79; 66,72</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>54,75; 64,5</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>74,24; 78,29</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>68,67; 73,87</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>67,75; 72,29</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>62,77; 69,18</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>59,42; 66,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>19,09%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>19,81%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>21,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 12,38</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 21,01</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 14,3</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>16,09; 27,78</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 23,76</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 14,18</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 21,74</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>15,04; 19,21</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>16,56; 22,45</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>20,68; 29,18</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 12,7</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 20,76</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 16,11</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 23,62</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>19,07; 24,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P18_3-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_3-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1801,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1960,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2282,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2441,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2763,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2922,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3244,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3403,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3725,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3884,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
